--- a/data/trans_orig/LAWTONB_2R3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_2R3-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>19706</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12650</v>
+        <v>12953</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27457</v>
+        <v>28142</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1713697432141633</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1100101022093254</v>
+        <v>0.1126431652336979</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2387754869954181</v>
+        <v>0.2447403012139137</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -765,19 +765,19 @@
         <v>25613</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17045</v>
+        <v>16736</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35500</v>
+        <v>35914</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1712853788089694</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.113988651675497</v>
+        <v>0.1119198831535849</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2374021721872673</v>
+        <v>0.2401728640085195</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>45</v>
@@ -786,19 +786,19 @@
         <v>45319</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>34560</v>
+        <v>35293</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>58977</v>
+        <v>60099</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1713220520769716</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.130650259151645</v>
+        <v>0.1334207686330574</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2229543157800067</v>
+        <v>0.2271950388180462</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>95283</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>87532</v>
+        <v>86847</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>102339</v>
+        <v>102036</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8286302567858367</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.761224513004582</v>
+        <v>0.7552596987860856</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8899898977906747</v>
+        <v>0.8873568347663021</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>127</v>
@@ -836,19 +836,19 @@
         <v>123922</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>114035</v>
+        <v>113621</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>132490</v>
+        <v>132799</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8287146211910307</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7625978278127328</v>
+        <v>0.7598271359914807</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8860113483245029</v>
+        <v>0.8880801168464152</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>225</v>
@@ -857,19 +857,19 @@
         <v>219205</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>205547</v>
+        <v>204425</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>229964</v>
+        <v>229231</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8286779479230284</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7770456842199933</v>
+        <v>0.7728049611819537</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8693497408483549</v>
+        <v>0.8665792313669427</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>20225</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12603</v>
+        <v>12461</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28636</v>
+        <v>29449</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1386357852325703</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08638534314125713</v>
+        <v>0.08541110381722256</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1962850538272617</v>
+        <v>0.2018569120810468</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -982,19 +982,19 @@
         <v>37590</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27710</v>
+        <v>27198</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51718</v>
+        <v>50794</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2057711787272019</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.151686027288835</v>
+        <v>0.1488847421737861</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2831097079224633</v>
+        <v>0.2780477020437808</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>55</v>
@@ -1003,19 +1003,19 @@
         <v>57816</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>44525</v>
+        <v>44452</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>72892</v>
+        <v>72315</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1759621552745631</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1355129804885292</v>
+        <v>0.1352890560351804</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.221847400024213</v>
+        <v>0.2200920823523347</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>125664</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>117253</v>
+        <v>116440</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>133286</v>
+        <v>133428</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8613642147674297</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8037149461727383</v>
+        <v>0.7981430879189534</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.913614656858743</v>
+        <v>0.9145888961827775</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>136</v>
@@ -1053,19 +1053,19 @@
         <v>145090</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>130962</v>
+        <v>131886</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>154970</v>
+        <v>155482</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7942288212727981</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7168902920775369</v>
+        <v>0.7219522979562188</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.848313972711165</v>
+        <v>0.8511152578262139</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>261</v>
@@ -1074,19 +1074,19 @@
         <v>270752</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>255676</v>
+        <v>256253</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>284043</v>
+        <v>284116</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8240378447254368</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.778152599975787</v>
+        <v>0.7799079176476654</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8644870195114708</v>
+        <v>0.8647109439648196</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>11421</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6430</v>
+        <v>5839</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19986</v>
+        <v>18915</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1094275945617222</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06160624143818763</v>
+        <v>0.05594892206028569</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1914867396129754</v>
+        <v>0.181229648573302</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -1199,19 +1199,19 @@
         <v>18999</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12009</v>
+        <v>11556</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27544</v>
+        <v>28369</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1398509723860862</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08839645976207922</v>
+        <v>0.08506364197874708</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2027555577642112</v>
+        <v>0.2088260994612645</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -1220,19 +1220,19 @@
         <v>30420</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20380</v>
+        <v>21739</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42079</v>
+        <v>43508</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1266326382600047</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08483718799157881</v>
+        <v>0.0904940193081384</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1751659757353542</v>
+        <v>0.1811158472542982</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>92950</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>84385</v>
+        <v>85456</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>97941</v>
+        <v>98532</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8905724054382778</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8085132603870246</v>
+        <v>0.8187703514266966</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9383937585618124</v>
+        <v>0.9440510779397141</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>122</v>
@@ -1270,19 +1270,19 @@
         <v>116851</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>108306</v>
+        <v>107481</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>123841</v>
+        <v>124294</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8601490276139138</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7972444422357888</v>
+        <v>0.7911739005387355</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9116035402379208</v>
+        <v>0.9149363580212529</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>213</v>
@@ -1291,19 +1291,19 @@
         <v>209801</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>198142</v>
+        <v>196713</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>219841</v>
+        <v>218482</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8733673617399953</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8248340242646476</v>
+        <v>0.8188841527457016</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9151628120084213</v>
+        <v>0.9095059806918615</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>13301</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8218</v>
+        <v>8293</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21035</v>
+        <v>20467</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0969347609059751</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05989017475022256</v>
+        <v>0.06043915784574665</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1532985665089175</v>
+        <v>0.1491609638014414</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -1416,19 +1416,19 @@
         <v>43642</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32399</v>
+        <v>31597</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>57001</v>
+        <v>56043</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2090384864560381</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1551843397004204</v>
+        <v>0.1513455192809463</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2730234297577941</v>
+        <v>0.2684371133961439</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>56</v>
@@ -1437,19 +1437,19 @@
         <v>56944</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>44530</v>
+        <v>44624</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>71805</v>
+        <v>71824</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1645794909327487</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.128701355576005</v>
+        <v>0.128974362307851</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.207531724757914</v>
+        <v>0.2075879358685807</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>123916</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>116182</v>
+        <v>116750</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>128999</v>
+        <v>128924</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9030652390940249</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8467014334910823</v>
+        <v>0.8508390361985583</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9401098252497774</v>
+        <v>0.9395608421542533</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>160</v>
@@ -1487,19 +1487,19 @@
         <v>165135</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>151776</v>
+        <v>152734</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>176378</v>
+        <v>177180</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7909615135439619</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7269765702422059</v>
+        <v>0.7315628866038568</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8448156602995793</v>
+        <v>0.8486544807190539</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>300</v>
@@ -1508,19 +1508,19 @@
         <v>289051</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>274190</v>
+        <v>274171</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>301465</v>
+        <v>301371</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8354205090672513</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7924682752420862</v>
+        <v>0.7924120641314193</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8712986444239951</v>
+        <v>0.8710256376921491</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>64653</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>51422</v>
+        <v>52804</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>80947</v>
+        <v>81300</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1286718283285648</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.102339657825441</v>
+        <v>0.1050894556205817</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.161099927688192</v>
+        <v>0.1618023642772639</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>116</v>
@@ -1633,19 +1633,19 @@
         <v>125845</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>106092</v>
+        <v>105823</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>147072</v>
+        <v>147711</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1859291040717413</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1567462371868074</v>
+        <v>0.1563484564930017</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.217291941809795</v>
+        <v>0.2182355184579468</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>185</v>
@@ -1654,19 +1654,19 @@
         <v>190498</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>164539</v>
+        <v>164992</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>218670</v>
+        <v>215710</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1615335818302416</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1395212927983874</v>
+        <v>0.139905424332552</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1854226919725903</v>
+        <v>0.1829125183753606</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>437813</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>421519</v>
+        <v>421166</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>451044</v>
+        <v>449662</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8713281716714352</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8389000723118077</v>
+        <v>0.8381976357227359</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.897660342174559</v>
+        <v>0.8949105443794181</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>545</v>
@@ -1704,19 +1704,19 @@
         <v>550997</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>529770</v>
+        <v>529131</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>570750</v>
+        <v>571019</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8140708959282587</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7827080581902053</v>
+        <v>0.7817644815420532</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8432537628131926</v>
+        <v>0.8436515435069986</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>999</v>
@@ -1725,19 +1725,19 @@
         <v>988810</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>960638</v>
+        <v>963598</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1014769</v>
+        <v>1014316</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8384664181697584</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8145773080274097</v>
+        <v>0.8170874816246394</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8604787072016128</v>
+        <v>0.860094575667448</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>24722</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16176</v>
+        <v>16548</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35380</v>
+        <v>35564</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.177160776869766</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1159188645675974</v>
+        <v>0.1185833971982029</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2535340441737645</v>
+        <v>0.2548545682613528</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -2090,19 +2090,19 @@
         <v>44817</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33661</v>
+        <v>32958</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>58529</v>
+        <v>56103</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2687078287115321</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2018187395881168</v>
+        <v>0.1976041084531337</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3509211718224924</v>
+        <v>0.3363733016114091</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>64</v>
@@ -2111,19 +2111,19 @@
         <v>69539</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>55479</v>
+        <v>55264</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>85403</v>
+        <v>85935</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2270044948121675</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1811052945682852</v>
+        <v>0.1804054417099185</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2787890555448645</v>
+        <v>0.2805271927786153</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>114825</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>104167</v>
+        <v>103983</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>123371</v>
+        <v>122999</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8228392231302341</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7464659558262363</v>
+        <v>0.7451454317386472</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8840811354324026</v>
+        <v>0.8814166028017971</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>116</v>
@@ -2161,19 +2161,19 @@
         <v>121970</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>108258</v>
+        <v>110684</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>133126</v>
+        <v>133829</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7312921712884679</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6490788281775075</v>
+        <v>0.6636266983885906</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7981812604118829</v>
+        <v>0.8023958915468657</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>222</v>
@@ -2182,19 +2182,19 @@
         <v>236795</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>220931</v>
+        <v>220399</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>250855</v>
+        <v>251070</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7729955051878324</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7212109444551354</v>
+        <v>0.719472807221385</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8188947054317148</v>
+        <v>0.8195945582900815</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>37107</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26870</v>
+        <v>27181</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48834</v>
+        <v>49543</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2395875677924022</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1734901249170156</v>
+        <v>0.1754979212515694</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.315305747251686</v>
+        <v>0.3198838965105552</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>54</v>
@@ -2307,19 +2307,19 @@
         <v>60282</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47318</v>
+        <v>48080</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>73752</v>
+        <v>74078</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3149215966397342</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2471943653014933</v>
+        <v>0.251174441510883</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3852913215031185</v>
+        <v>0.3869921391098906</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>86</v>
@@ -2328,19 +2328,19 @@
         <v>97389</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>80618</v>
+        <v>80719</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>115522</v>
+        <v>114518</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2812292644292192</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2328008617288951</v>
+        <v>0.2330903994755325</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3335924180541661</v>
+        <v>0.3306918240529806</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>117771</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>106044</v>
+        <v>105335</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>128008</v>
+        <v>127697</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7604124322075978</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6846942527483135</v>
+        <v>0.6801161034894448</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8265098750829843</v>
+        <v>0.8245020787484308</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>123</v>
@@ -2378,19 +2378,19 @@
         <v>131138</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>117668</v>
+        <v>117342</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>144102</v>
+        <v>143340</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6850784033602658</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6147086784968816</v>
+        <v>0.6130078608901095</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7528056346985068</v>
+        <v>0.748825558489117</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>229</v>
@@ -2399,19 +2399,19 @@
         <v>248909</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>230776</v>
+        <v>231780</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>265680</v>
+        <v>265579</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7187707355707807</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6664075819458339</v>
+        <v>0.669308175947019</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7671991382711051</v>
+        <v>0.7669096005244674</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>22611</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15205</v>
+        <v>13958</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32986</v>
+        <v>32752</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2182606317297492</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1467718671252299</v>
+        <v>0.1347278720390344</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3184076533167775</v>
+        <v>0.3161463911560301</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -2524,19 +2524,19 @@
         <v>41990</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32070</v>
+        <v>30684</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54912</v>
+        <v>53430</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2977607480179318</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2274128162032635</v>
+        <v>0.2175892251329354</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3893947282810389</v>
+        <v>0.3788845087962745</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -2545,19 +2545,19 @@
         <v>64601</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>50955</v>
+        <v>50823</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>80538</v>
+        <v>79102</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2640914856256982</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2083033988926</v>
+        <v>0.2077659863258322</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3292411896722662</v>
+        <v>0.32337070047337</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>80987</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>70612</v>
+        <v>70846</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>88393</v>
+        <v>89640</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7817393682702508</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.681592346683222</v>
+        <v>0.6838536088439701</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8532281328747701</v>
+        <v>0.8652721279609656</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>91</v>
@@ -2595,19 +2595,19 @@
         <v>99029</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>86107</v>
+        <v>87589</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>108949</v>
+        <v>110335</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7022392519820682</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6106052717189613</v>
+        <v>0.6211154912037257</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7725871837967366</v>
+        <v>0.7824107748670647</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>162</v>
@@ -2616,19 +2616,19 @@
         <v>180016</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>164079</v>
+        <v>165515</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>193662</v>
+        <v>193794</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7359085143743018</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6707588103277341</v>
+        <v>0.6766292995266302</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7916966011074008</v>
+        <v>0.792234013674168</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>31960</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23067</v>
+        <v>22173</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>43661</v>
+        <v>45417</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1977547349020398</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.14272982940919</v>
+        <v>0.1371994184638201</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2701570585179751</v>
+        <v>0.2810245936207272</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>45</v>
@@ -2741,19 +2741,19 @@
         <v>47365</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>35579</v>
+        <v>36370</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>60702</v>
+        <v>62122</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1943167351375602</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.14596677860449</v>
+        <v>0.1492098422154221</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.249032359001692</v>
+        <v>0.2548603859461422</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>73</v>
@@ -2762,19 +2762,19 @@
         <v>79324</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>64043</v>
+        <v>64866</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>96548</v>
+        <v>97806</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1956874242796474</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1579884996868825</v>
+        <v>0.1600189500765078</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2381777987775904</v>
+        <v>0.2412797221602303</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>129653</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>117952</v>
+        <v>116196</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>138546</v>
+        <v>139440</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8022452650979601</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7298429414820249</v>
+        <v>0.7189754063792726</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8572701705908099</v>
+        <v>0.8628005815361799</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>186</v>
@@ -2812,19 +2812,19 @@
         <v>196385</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>183048</v>
+        <v>181628</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>208171</v>
+        <v>207380</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8056832648624398</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7509676409983082</v>
+        <v>0.7451396140538576</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.85403322139551</v>
+        <v>0.8507901577845778</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>305</v>
@@ -2833,19 +2833,19 @@
         <v>326039</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>308815</v>
+        <v>307557</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>341320</v>
+        <v>340497</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8043125757203525</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7618222012224097</v>
+        <v>0.7587202778397697</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8420115003131176</v>
+        <v>0.8399810499234922</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>116400</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>96337</v>
+        <v>95353</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>138932</v>
+        <v>138893</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2079926793826373</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1721414536845844</v>
+        <v>0.1703829782223399</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2482533458573305</v>
+        <v>0.2481844182131615</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>178</v>
@@ -2958,19 +2958,19 @@
         <v>194454</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>170117</v>
+        <v>171588</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>220847</v>
+        <v>219962</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2617229879361923</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2289677460627383</v>
+        <v>0.2309471252751682</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2972471592053033</v>
+        <v>0.2960561611486903</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>280</v>
@@ -2979,19 +2979,19 @@
         <v>310854</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>280961</v>
+        <v>281438</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>346981</v>
+        <v>342188</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2386390075650809</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2156906679844358</v>
+        <v>0.2160563263473659</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2663729468367856</v>
+        <v>0.2626933883316452</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>443237</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>420705</v>
+        <v>420744</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>463300</v>
+        <v>464284</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7920073206173627</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7517466541426695</v>
+        <v>0.7518155817868384</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8278585463154157</v>
+        <v>0.8296170217776601</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>516</v>
@@ -3029,19 +3029,19 @@
         <v>548521</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>522128</v>
+        <v>523013</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>572858</v>
+        <v>571387</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7382770120638077</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7027528407946967</v>
+        <v>0.7039438388513096</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7710322539372617</v>
+        <v>0.7690528747248317</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>918</v>
@@ -3050,19 +3050,19 @@
         <v>991758</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>955631</v>
+        <v>960424</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1021651</v>
+        <v>1021174</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7613609924349192</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7336270531632143</v>
+        <v>0.7373066116683548</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7843093320155642</v>
+        <v>0.7839436736526341</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>24318</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16435</v>
+        <v>16024</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32325</v>
+        <v>33345</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1778508859036385</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1201991456072252</v>
+        <v>0.1171944390161625</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2364056508297882</v>
+        <v>0.2438690330262488</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -3415,19 +3415,19 @@
         <v>41442</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30930</v>
+        <v>30628</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53995</v>
+        <v>53253</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2390091836182639</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.178382649776115</v>
+        <v>0.176640195722104</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3114048865951266</v>
+        <v>0.307127582711126</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>64</v>
@@ -3436,19 +3436,19 @@
         <v>65760</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>53107</v>
+        <v>52162</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>81493</v>
+        <v>82163</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2120444998460823</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1712446798245589</v>
+        <v>0.1681963037916341</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2627742485984934</v>
+        <v>0.2649350535966763</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>112416</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>104409</v>
+        <v>103389</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>120299</v>
+        <v>120710</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8221491140963615</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7635943491702117</v>
+        <v>0.7561309669737513</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8798008543927749</v>
+        <v>0.8828055609838376</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>121</v>
@@ -3486,19 +3486,19 @@
         <v>131949</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>119396</v>
+        <v>120138</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>142461</v>
+        <v>142763</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.760990816381736</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6885951134048734</v>
+        <v>0.6928724172888741</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.821617350223885</v>
+        <v>0.823359804277896</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>241</v>
@@ -3507,19 +3507,19 @@
         <v>244365</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>228632</v>
+        <v>227962</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>257018</v>
+        <v>257963</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7879555001539177</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7372257514015066</v>
+        <v>0.7350649464033238</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8287553201754412</v>
+        <v>0.8318036962083659</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>27051</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18976</v>
+        <v>19535</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36762</v>
+        <v>37084</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.164001937001032</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1150473920351369</v>
+        <v>0.1184387653535524</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2228776568984579</v>
+        <v>0.224834560096785</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>42</v>
@@ -3632,19 +3632,19 @@
         <v>54454</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40955</v>
+        <v>41003</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>70466</v>
+        <v>70534</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2484621294270304</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.186868470905314</v>
+        <v>0.1870885657264521</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3215254225666202</v>
+        <v>0.321834609864149</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>72</v>
@@ -3653,19 +3653,19 @@
         <v>81504</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>66047</v>
+        <v>65037</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>99145</v>
+        <v>98280</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2121934750270867</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1719508459836012</v>
+        <v>0.1693205064485569</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2581206069548397</v>
+        <v>0.2558682063368806</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>137890</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>128179</v>
+        <v>127857</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>145965</v>
+        <v>145406</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.835998062998968</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7771223431015423</v>
+        <v>0.7751654399032148</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8849526079648633</v>
+        <v>0.8815612346464475</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>140</v>
@@ -3703,19 +3703,19 @@
         <v>164709</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>148697</v>
+        <v>148629</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>178208</v>
+        <v>178160</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7515378705729696</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6784745774333796</v>
+        <v>0.6781653901358508</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8131315290946856</v>
+        <v>0.8129114342735478</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>285</v>
@@ -3724,19 +3724,19 @@
         <v>302600</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>284959</v>
+        <v>285824</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>318057</v>
+        <v>319067</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7878065249729134</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.74187939304516</v>
+        <v>0.7441317936631193</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8280491540163988</v>
+        <v>0.830679493551443</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>14242</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8207</v>
+        <v>7982</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21493</v>
+        <v>22465</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1238037348636874</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07134243517632341</v>
+        <v>0.06939089620743064</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1868399355757757</v>
+        <v>0.195285994377219</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -3849,19 +3849,19 @@
         <v>40598</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29091</v>
+        <v>28687</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53214</v>
+        <v>51757</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2847061574132502</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2040101238338484</v>
+        <v>0.2011767200799794</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3731783568237558</v>
+        <v>0.3629645505448598</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>47</v>
@@ -3870,19 +3870,19 @@
         <v>54840</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>41166</v>
+        <v>42307</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>69892</v>
+        <v>69885</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2128614895418301</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1597861373696212</v>
+        <v>0.1642162824352593</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2712853447836662</v>
+        <v>0.2712618166842678</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>100793</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>93542</v>
+        <v>92570</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>106828</v>
+        <v>107053</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8761962651363125</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8131600644242242</v>
+        <v>0.8047140056227811</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9286575648236766</v>
+        <v>0.9306091037925697</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>86</v>
@@ -3920,19 +3920,19 @@
         <v>101998</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>89382</v>
+        <v>90839</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>113505</v>
+        <v>113909</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7152938425867498</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6268216431762441</v>
+        <v>0.6370354494551402</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7959898761661516</v>
+        <v>0.7988232799200207</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>185</v>
@@ -3941,19 +3941,19 @@
         <v>202791</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>187739</v>
+        <v>187746</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>216465</v>
+        <v>215324</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.78713851045817</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7287146552163339</v>
+        <v>0.7287381833157325</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8402138626303788</v>
+        <v>0.8357837175647408</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>23475</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15780</v>
+        <v>15704</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33887</v>
+        <v>33446</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1344376929701638</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09037011624519449</v>
+        <v>0.08993507586970739</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1940614459046438</v>
+        <v>0.1915390560397402</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -4066,19 +4066,19 @@
         <v>46853</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>35178</v>
+        <v>33739</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64229</v>
+        <v>61139</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1929848023270775</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1448957926589839</v>
+        <v>0.1389688579614538</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2645569960151889</v>
+        <v>0.2518275278670562</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>61</v>
@@ -4087,19 +4087,19 @@
         <v>70328</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>54780</v>
+        <v>54839</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>88307</v>
+        <v>89294</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1684917297508836</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1312420188976861</v>
+        <v>0.1313822166052963</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2115653310713192</v>
+        <v>0.2139284448940837</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>151143</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>140731</v>
+        <v>141172</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>158838</v>
+        <v>158914</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8655623070298362</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8059385540953561</v>
+        <v>0.8084609439602597</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9096298837548054</v>
+        <v>0.9100649241302926</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>163</v>
@@ -4137,19 +4137,19 @@
         <v>195928</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>178552</v>
+        <v>181642</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>207603</v>
+        <v>209042</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8070151976729225</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7354430039848109</v>
+        <v>0.748172472132943</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8551042073410161</v>
+        <v>0.861031142038546</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>327</v>
@@ -4158,19 +4158,19 @@
         <v>347072</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>329093</v>
+        <v>328106</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>362620</v>
+        <v>362561</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8315082702491164</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.788434668928681</v>
+        <v>0.7860715551059163</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8687579811023141</v>
+        <v>0.8686177833947037</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>89086</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>72676</v>
+        <v>74075</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>105269</v>
+        <v>106225</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1506539530871139</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1229027977679228</v>
+        <v>0.1252681364379513</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1780213972559931</v>
+        <v>0.1796375517790794</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>145</v>
@@ -4283,19 +4283,19 @@
         <v>183347</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>157659</v>
+        <v>157849</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>208445</v>
+        <v>210046</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2356850902301122</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2026638777498206</v>
+        <v>0.2029084896002077</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2679480684836626</v>
+        <v>0.2700061819504744</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>244</v>
@@ -4304,19 +4304,19 @@
         <v>272433</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>240986</v>
+        <v>241978</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>303218</v>
+        <v>303179</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1989635553064476</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1759973014521063</v>
+        <v>0.1767220275867888</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2214469323528347</v>
+        <v>0.2214184270641579</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>502242</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>486059</v>
+        <v>485103</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>518652</v>
+        <v>517253</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8493460469128862</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8219786027440068</v>
+        <v>0.8203624482209205</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8770972022320772</v>
+        <v>0.8747318635620488</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>510</v>
@@ -4354,19 +4354,19 @@
         <v>594584</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>569486</v>
+        <v>567885</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>620272</v>
+        <v>620082</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7643149097698878</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7320519315163372</v>
+        <v>0.7299938180495255</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7973361222501791</v>
+        <v>0.7970915103997922</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1038</v>
@@ -4375,19 +4375,19 @@
         <v>1096826</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1066041</v>
+        <v>1066080</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1128273</v>
+        <v>1127281</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8010364446935524</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7785530676471646</v>
+        <v>0.7785815729358422</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8240026985478933</v>
+        <v>0.8232779724132113</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>39977</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30848</v>
+        <v>32173</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49236</v>
+        <v>49435</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2447861332319627</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.188888255749959</v>
+        <v>0.1969999462202126</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.301479081192808</v>
+        <v>0.3026997400574234</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>156</v>
@@ -4740,19 +4740,19 @@
         <v>66460</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>57709</v>
+        <v>57943</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>75212</v>
+        <v>75662</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.350151496269357</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3040468822402078</v>
+        <v>0.3052803971813313</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3962647975940708</v>
+        <v>0.3986338052542974</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>223</v>
@@ -4761,19 +4761,19 @@
         <v>106437</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>94307</v>
+        <v>92594</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>119891</v>
+        <v>118438</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3014207165353518</v>
+        <v>0.3014207165353517</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2670690069359199</v>
+        <v>0.2622201195078949</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3395208158045314</v>
+        <v>0.3354078386872424</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>123337</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>114078</v>
+        <v>113879</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>132466</v>
+        <v>131141</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7552138667680373</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6985209188071927</v>
+        <v>0.6973002599425765</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8111117442500412</v>
+        <v>0.8030000537797873</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>288</v>
@@ -4811,19 +4811,19 @@
         <v>123343</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>114591</v>
+        <v>114141</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>132094</v>
+        <v>131860</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.649848503730643</v>
+        <v>0.6498485037306431</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6037352024059293</v>
+        <v>0.6013661947457029</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6959531177597922</v>
+        <v>0.6947196028186688</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>474</v>
@@ -4832,19 +4832,19 @@
         <v>246680</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>233226</v>
+        <v>234679</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>258810</v>
+        <v>260523</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6985792834646483</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6604791841954687</v>
+        <v>0.6645921613127574</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7329309930640798</v>
+        <v>0.7377798804921052</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>31636</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23625</v>
+        <v>23644</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40200</v>
+        <v>40623</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1775290861980789</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1325705540669489</v>
+        <v>0.1326799087988433</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2255868814641748</v>
+        <v>0.2279576887634907</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>132</v>
@@ -4957,19 +4957,19 @@
         <v>70963</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>60860</v>
+        <v>61449</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>81130</v>
+        <v>82366</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2947866288860786</v>
+        <v>0.2947866288860785</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.252816161700078</v>
+        <v>0.2552658749322467</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3370217184558904</v>
+        <v>0.3421549328572566</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>182</v>
@@ -4978,19 +4978,19 @@
         <v>102599</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>88948</v>
+        <v>89789</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>116123</v>
+        <v>116056</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2449078850428854</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2123213527004063</v>
+        <v>0.2143302970424576</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2771904568719969</v>
+        <v>0.2770292389392864</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>146568</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>138004</v>
+        <v>137581</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>154579</v>
+        <v>154560</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8224709138019212</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7744131185358256</v>
+        <v>0.7720423112365092</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8674294459330514</v>
+        <v>0.8673200912011567</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>314</v>
@@ -5028,19 +5028,19 @@
         <v>169764</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>159597</v>
+        <v>158361</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>179867</v>
+        <v>179278</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7052133711139215</v>
+        <v>0.7052133711139214</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6629782815441096</v>
+        <v>0.6578450671427433</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7471838382999217</v>
+        <v>0.7447341250677534</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>518</v>
@@ -5049,19 +5049,19 @@
         <v>316331</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>302807</v>
+        <v>302874</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>329982</v>
+        <v>329141</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7550921149571146</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7228095431280031</v>
+        <v>0.7229707610607138</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7876786472995937</v>
+        <v>0.7856697029575426</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>13608</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7921</v>
+        <v>8058</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21017</v>
+        <v>21010</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08604224075425106</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05008152142774002</v>
+        <v>0.05094959231934087</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1328840250220941</v>
+        <v>0.1328401836708314</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>70</v>
@@ -5174,19 +5174,19 @@
         <v>43350</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35156</v>
+        <v>35113</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53642</v>
+        <v>52759</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2485106506251061</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2015329653817818</v>
+        <v>0.201286753392676</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3075080436924013</v>
+        <v>0.3024458931505147</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>87</v>
@@ -5195,19 +5195,19 @@
         <v>56959</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46825</v>
+        <v>46116</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>67892</v>
+        <v>68259</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1712536626595919</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1407869221103946</v>
+        <v>0.1386536758437334</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2041265406772811</v>
+        <v>0.2052289308141963</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>144549</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>137140</v>
+        <v>137147</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>150236</v>
+        <v>150099</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9139577592457491</v>
+        <v>0.9139577592457488</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.867115974977906</v>
+        <v>0.8671598163291685</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9499184785722601</v>
+        <v>0.9490504076806591</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>217</v>
@@ -5245,19 +5245,19 @@
         <v>131091</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>120799</v>
+        <v>121682</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>139285</v>
+        <v>139328</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7514893493748938</v>
+        <v>0.7514893493748941</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6924919563075987</v>
+        <v>0.6975541068494856</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7984670346182181</v>
+        <v>0.7987132466073239</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>391</v>
@@ -5266,19 +5266,19 @@
         <v>275639</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>264706</v>
+        <v>264339</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>285773</v>
+        <v>286482</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.828746337340408</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.795873459322719</v>
+        <v>0.7947710691858038</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8592130778896058</v>
+        <v>0.8613463241562666</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>28317</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20753</v>
+        <v>21113</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36227</v>
+        <v>36833</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1345017010405571</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09857510675560667</v>
+        <v>0.1002830898506625</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1720733618949255</v>
+        <v>0.1749520839145539</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>123</v>
@@ -5391,19 +5391,19 @@
         <v>74609</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>62372</v>
+        <v>63784</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>85664</v>
+        <v>85769</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2544220595866427</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2126938443776481</v>
+        <v>0.2175078559245291</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2921240382347649</v>
+        <v>0.2924810258270618</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>168</v>
@@ -5412,19 +5412,19 @@
         <v>102925</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>89244</v>
+        <v>89195</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>118116</v>
+        <v>116563</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2043067634388424</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1771498681445558</v>
+        <v>0.1770519368841307</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2344603209352005</v>
+        <v>0.2313773191733626</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>182215</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>174305</v>
+        <v>173699</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>189779</v>
+        <v>189419</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8654982989594429</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8279266381050744</v>
+        <v>0.825047916085446</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9014248932443933</v>
+        <v>0.8997169101493374</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>398</v>
@@ -5462,19 +5462,19 @@
         <v>218638</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>207583</v>
+        <v>207478</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>230875</v>
+        <v>229463</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7455779404133575</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7078759617652347</v>
+        <v>0.7075189741729383</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7873061556223516</v>
+        <v>0.7824921440754709</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>673</v>
@@ -5483,19 +5483,19 @@
         <v>400854</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>385663</v>
+        <v>387216</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>414535</v>
+        <v>414584</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7956932365611575</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7655396790647995</v>
+        <v>0.7686226808266372</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8228501318554442</v>
+        <v>0.8229480631158693</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>113539</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>98484</v>
+        <v>98066</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>129229</v>
+        <v>130288</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.159866785369437</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1386692186258262</v>
+        <v>0.1380809580121421</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1819598922822145</v>
+        <v>0.1834510773133514</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>481</v>
@@ -5608,19 +5608,19 @@
         <v>255382</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>234462</v>
+        <v>236168</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>274879</v>
+        <v>277041</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2843205443861945</v>
+        <v>0.2843205443861946</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2610304638982825</v>
+        <v>0.2629294017294213</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3060275747994671</v>
+        <v>0.3084336816427625</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>660</v>
@@ -5629,19 +5629,19 @@
         <v>368920</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>342734</v>
+        <v>343793</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>394992</v>
+        <v>396219</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2293674586049771</v>
+        <v>0.229367458604977</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.213086663534298</v>
+        <v>0.2137453231795672</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2455771734084569</v>
+        <v>0.2463398474749019</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>596668</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>580978</v>
+        <v>579919</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>611723</v>
+        <v>612141</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8401332146305629</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8180401077177856</v>
+        <v>0.8165489226866484</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.861330781374174</v>
+        <v>0.8619190419878578</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1217</v>
@@ -5679,19 +5679,19 @@
         <v>642836</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>623339</v>
+        <v>621177</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>663756</v>
+        <v>662050</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7156794556138053</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.693972425200533</v>
+        <v>0.6915663183572376</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7389695361017175</v>
+        <v>0.7370705982705787</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2056</v>
@@ -5700,19 +5700,19 @@
         <v>1239504</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1213432</v>
+        <v>1212205</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1265690</v>
+        <v>1264631</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.770632541395023</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7544228265915431</v>
+        <v>0.7536601525250981</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7869133364657021</v>
+        <v>0.7862546768204329</v>
       </c>
     </row>
     <row r="18">
